--- a/Documents/DB structure.xlsx
+++ b/Documents/DB structure.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stevens data\2nd SEM\690\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26340" windowHeight="13400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Events table" sheetId="1" r:id="rId1"/>
@@ -20,8 +15,11 @@
     <sheet name="Subscription table" sheetId="5" r:id="rId6"/>
     <sheet name="Reminder table" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>Fields</t>
   </si>
@@ -222,8 +220,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +233,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,22 +290,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -309,7 +329,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -368,7 +394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -420,7 +446,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -614,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -624,18 +650,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -646,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -657,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -668,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -679,7 +705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -690,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -701,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -712,7 +738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -723,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="42">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -736,7 +762,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -748,14 +779,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,7 +797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -777,7 +808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -788,7 +819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -799,7 +830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -810,7 +841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="42">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -821,7 +852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -832,7 +863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="28">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -843,7 +874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -854,7 +885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -865,31 +896,36 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="144.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="144.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -900,7 +936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -911,7 +947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -922,14 +958,64 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
+    <row r="16" spans="1:7">
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -941,13 +1027,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -958,7 +1044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -969,7 +1055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -982,6 +1068,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -993,12 +1084,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1033,6 +1124,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1044,13 +1140,13 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1085,6 +1181,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1092,18 +1193,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1125,7 +1226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1136,14 +1237,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
@@ -1152,6 +1253,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Documents/DB structure.xlsx
+++ b/Documents/DB structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26340" windowHeight="13400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26340" windowHeight="13400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Events table" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Subscription table" sheetId="5" r:id="rId6"/>
     <sheet name="Reminder table" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t>Fields</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>insert into Users (Uid, Ufname, Ulname, Uemail, Upassword, UCWID, Uprofpic, Unotification) values (1, 'John', 'Peterson', 'jp@example.com','abc123', 123456,null,'Email');</t>
-  </si>
-  <si>
     <t>Table</t>
   </si>
   <si>
@@ -215,6 +212,12 @@
   </si>
   <si>
     <t>create table Users (Uid integer primary key, Ufname text, Ulname text, Uemail text, Upassword text, UCWID integer, Uprofpic blob, Unotification text);</t>
+  </si>
+  <si>
+    <t>INSERT INTO  Users (Uid, Ufname, Ulname, Uemail, Upassword, UCWID, Uprofpic, Unotification) values (1, 'John', 'Peterson', 'jp@example.com','abc123', 123456,null,'Email');</t>
+  </si>
+  <si>
+    <t>INSERT INTO Events (Eid, Ename, Elocation, Etime, Edate, Edescription, Eimage, Esource) values (1, 'John', 'Peterson', 'jp@example.com','abc123', 123456,null,'Email');</t>
   </si>
 </sst>
 </file>
@@ -304,8 +307,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -329,13 +344,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -915,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -927,40 +954,40 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1023,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
